--- a/course_dio/santander_backend_2025/5 - Excel/My First Workbook.xlsx
+++ b/course_dio/santander_backend_2025/5 - Excel/My First Workbook.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro\Documents\GitHub\structure_code_python\course_dio\santander_backend_2025\5 - Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8512AD7-B50F-45D4-9A8E-71EC084C7F41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A654DF3-11CD-495B-8DE0-D7CCFAF8D768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{55D01330-FF7B-441A-84FC-9B3DC4736609}"/>
   </bookViews>
@@ -36,31 +36,82 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>Loja</t>
-  </si>
-  <si>
-    <t>Loja A</t>
-  </si>
-  <si>
-    <t>Loja B</t>
-  </si>
-  <si>
-    <t>Loja C</t>
-  </si>
-  <si>
-    <t>Valor de vendas</t>
-  </si>
-  <si>
-    <t>Total</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
+  <si>
+    <t>Backlog</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Record course excel</t>
+  </si>
+  <si>
+    <t>Felipao</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Stuck</t>
+  </si>
+  <si>
+    <t>20/12/2024</t>
+  </si>
+  <si>
+    <t>Create Questions</t>
+  </si>
+  <si>
+    <t>Edit Videos</t>
+  </si>
+  <si>
+    <t>Núbia</t>
+  </si>
+  <si>
+    <t>22/12/2024</t>
+  </si>
+  <si>
+    <t>Cadastrar plataforma</t>
+  </si>
+  <si>
+    <t>Aline</t>
+  </si>
+  <si>
+    <t>23/12/2024</t>
+  </si>
+  <si>
+    <t>Colocar uma badge</t>
+  </si>
+  <si>
+    <t>Elidiana</t>
+  </si>
+  <si>
+    <t>Adicionar ao bootcamp</t>
+  </si>
+  <si>
+    <t>Total de Atividades</t>
+  </si>
+  <si>
+    <t>Atividades Concluídas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,16 +119,87 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Aptos Display"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Segoe UI Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Aptos Display"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEBEDEF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -85,18 +207,168 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top style="thin">
+        <color theme="2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Título" xfId="1" builtinId="15"/>
+    <cellStyle name="Título 2" xfId="2" builtinId="17"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFBAB3E"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDE445A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDE445A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFBAB3E"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFDE445A"/>
+      <color rgb="FFFBAB3E"/>
+      <color rgb="FFEBEDEF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -106,6 +378,818 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.20657292268154426"/>
+          <c:y val="4.1666679094094217E-2"/>
+          <c:w val="0.79342707731845574"/>
+          <c:h val="0.91666664181181157"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SHEETS!$I$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total de Atividades</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-EEEB-4348-AF4F-F9729EAECA3E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:val>
+            <c:numRef>
+              <c:f>SHEETS!$J$6:$K$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EEEB-4348-AF4F-F9729EAECA3E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SHEETS!$I$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Atividades Concluídas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="90000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>SHEETS!$J$7:$K$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EEEB-4348-AF4F-F9729EAECA3E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="1697590431"/>
+        <c:axId val="1697591871"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1697590431"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1697591871"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1697591871"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1697590431"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>457201</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>247649</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EF2B206-0467-E72E-1BCD-37ED3D667D92}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -425,68 +1509,262 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B00A3A4-C414-4905-8D5D-BF3D774A8025}">
-  <dimension ref="C3:E6"/>
+  <dimension ref="B1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="16.42578125" customWidth="1"/>
+    <col min="2" max="2" width="3.5703125" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
+    <row r="1" spans="2:11" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:11" ht="9" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:11" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="2:11" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="5"/>
+      <c r="C5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G5" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <f ca="1">RANDBETWEEN(100,500)</f>
-        <v>371</v>
-      </c>
-      <c r="E4">
-        <f ca="1">SUM(D4:D6)</f>
-        <v>1096</v>
+    <row r="6" spans="2:11" ht="22.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="4"/>
+      <c r="C6" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="7">
+        <v>2</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="13"/>
+      <c r="K6" s="14">
+        <f>COUNTA(C6:C15)</f>
+        <v>6</v>
       </c>
     </row>
-    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <f t="shared" ref="D5:D6" ca="1" si="0">RANDBETWEEN(100,500)</f>
-        <v>339</v>
-      </c>
-      <c r="E5">
-        <f ca="1">SUM(D5:D7)</f>
-        <v>725</v>
+    <row r="7" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="3"/>
+      <c r="C7" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="8">
+        <v>4</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="13"/>
+      <c r="K7" s="14">
+        <f>COUNTIF(E6:E15,"Done")</f>
+        <v>3</v>
       </c>
     </row>
-    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
+    <row r="8" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="3"/>
+      <c r="C8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="8">
         <v>3</v>
       </c>
-      <c r="D6">
-        <f t="shared" ca="1" si="0"/>
-        <v>386</v>
-      </c>
-      <c r="E6">
-        <f ca="1">SUM(D6:D8)</f>
-        <v>386</v>
-      </c>
+    </row>
+    <row r="9" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="3"/>
+      <c r="C9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="3"/>
+      <c r="C10" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="3"/>
+      <c r="C11" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="3"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="3"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="3"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="8"/>
+    </row>
+    <row r="15" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="3"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="8"/>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="2"/>
     </row>
   </sheetData>
+  <dataConsolidate/>
+  <conditionalFormatting sqref="E6:E15">
+    <cfRule type="expression" dxfId="2" priority="2">
+      <formula>$E6="Stuck"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="3">
+      <formula>$E6="Done"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="4">
+      <formula>$E6="In Progress"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E15" xr:uid="{9B0622BF-30F1-473A-A725-3F7CD971836C}">
+      <formula1>"Done,In Progress,Stuck"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="1" id="{F6204222-8493-41CD-9121-96AB46713D06}">
+            <x14:iconSet iconSet="4Rating" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>3</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>4</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Stars" iconId="0"/>
+              <x14:cfIcon iconSet="3Stars" iconId="1"/>
+              <x14:cfIcon iconSet="3Stars" iconId="2"/>
+              <x14:cfIcon iconSet="3Stars" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>G6:G15</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>